--- a/src/test/java/resources/exceldata.xlsx
+++ b/src/test/java/resources/exceldata.xlsx
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="m-d-yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -126,12 +126,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -362,160 +359,160 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>123.0</v>
       </c>
-      <c r="F2" s="4">
-        <v>43961.0</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="3">
+        <v>44115.0</v>
+      </c>
+      <c r="G2" s="2">
         <v>90000.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>234.0</v>
       </c>
-      <c r="F3" s="4">
-        <v>43961.0</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="3">
+        <v>44115.0</v>
+      </c>
+      <c r="G3" s="2">
         <v>100000.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>345.0</v>
       </c>
-      <c r="F4" s="4">
-        <v>43961.0</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="3">
+        <v>44115.0</v>
+      </c>
+      <c r="G4" s="2">
         <v>120000.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>123.0</v>
       </c>
-      <c r="F5" s="4">
-        <v>43961.0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="3">
+        <v>44115.0</v>
+      </c>
+      <c r="G5" s="2">
         <v>90000.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>234.0</v>
       </c>
-      <c r="F6" s="4">
-        <v>43961.0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="3">
+        <v>44115.0</v>
+      </c>
+      <c r="G6" s="2">
         <v>100000.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>345.0</v>
       </c>
-      <c r="F7" s="4">
-        <v>43961.0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="3">
+        <v>44115.0</v>
+      </c>
+      <c r="G7" s="2">
         <v>120000.0</v>
       </c>
     </row>
